--- a/gameserver/src/main/resources/gameData/buffer.xlsx
+++ b/gameserver/src/main/resources/gameData/buffer.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16535" windowHeight="8460"/>
+    <workbookView windowWidth="23040" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16">
   <si>
     <t>id</t>
   </si>
@@ -61,6 +61,9 @@
   </si>
   <si>
     <t>魔法值恢复</t>
+  </si>
+  <si>
+    <t>生命值恢复</t>
   </si>
 </sst>
 </file>
@@ -68,10 +71,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -83,15 +86,58 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -105,8 +151,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -137,29 +184,38 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -167,60 +223,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -235,187 +238,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -429,16 +432,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -449,6 +452,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -468,11 +480,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -480,8 +498,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -497,31 +515,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -534,10 +537,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -546,133 +549,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1028,13 +1031,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6"/>
   <sheetData>
     <row r="1" ht="45" customHeight="1" spans="1:10">
       <c r="A1" t="s">
@@ -1226,6 +1229,38 @@
       </c>
       <c r="J6">
         <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7">
+        <v>106</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>10</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>20000</v>
+      </c>
+      <c r="I7">
+        <v>2000</v>
+      </c>
+      <c r="J7">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/gameserver/src/main/resources/gameData/buffer.xlsx
+++ b/gameserver/src/main/resources/gameData/buffer.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420"/>
+    <workbookView windowWidth="23040" windowHeight="9347"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,9 +36,6 @@
     <t>mp效果</t>
   </si>
   <si>
-    <t>状态</t>
-  </si>
-  <si>
     <t>持续时间</t>
   </si>
   <si>
@@ -64,6 +61,9 @@
   </si>
   <si>
     <t>生命值恢复</t>
+  </si>
+  <si>
+    <t>燃烧</t>
   </si>
 </sst>
 </file>
@@ -71,10 +71,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -93,7 +93,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -101,7 +108,52 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -115,13 +167,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -129,15 +198,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -151,79 +222,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -238,187 +238,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -432,50 +432,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -498,19 +459,32 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -529,6 +503,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -537,10 +537,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -549,133 +549,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1031,15 +1031,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7"/>
   <sheetData>
-    <row r="1" ht="45" customHeight="1" spans="1:10">
+    <row r="1" ht="45" customHeight="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1067,16 +1067,13 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>101</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -1091,24 +1088,21 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>101</v>
+        <v>120000</v>
       </c>
       <c r="H2">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>102</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1123,24 +1117,21 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>102</v>
+        <v>120000</v>
       </c>
       <c r="H3">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>103</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -1155,24 +1146,21 @@
         <v>-5</v>
       </c>
       <c r="G4">
+        <v>20000</v>
+      </c>
+      <c r="H4">
         <v>0</v>
       </c>
-      <c r="H4">
-        <v>20000</v>
-      </c>
       <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>104</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -1187,24 +1175,21 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="H5">
-        <v>60000</v>
+        <v>1000</v>
       </c>
       <c r="I5">
-        <v>1000</v>
-      </c>
-      <c r="J5">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>105</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -1219,24 +1204,21 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H6">
-        <v>-1</v>
+        <v>2000</v>
       </c>
       <c r="I6">
-        <v>2000</v>
-      </c>
-      <c r="J6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:9">
       <c r="A7">
         <v>106</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -1251,15 +1233,41 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>20000</v>
       </c>
       <c r="H7">
+        <v>2000</v>
+      </c>
+      <c r="I7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>-10</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
         <v>20000</v>
       </c>
-      <c r="I7">
+      <c r="H8">
         <v>2000</v>
       </c>
-      <c r="J7">
+      <c r="I8">
         <v>10</v>
       </c>
     </row>

--- a/gameserver/src/main/resources/gameData/buffer.xlsx
+++ b/gameserver/src/main/resources/gameData/buffer.xlsx
@@ -7,7 +7,7 @@
     <workbookView windowWidth="23040" windowHeight="9347"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="buffer配置表" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -15,8 +15,71 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>gonefuture</author>
+  </authors>
+  <commentList>
+    <comment ref="C1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>gonefuture:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1 自身使用
+2 友方使用
+3 对敌方使用</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>1 无特殊效果
+2 持续伤害
+3 减速
+4 眩晕</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">间隔触发效果时间
+-1 不会间隔触发，直接等待结束
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19">
   <si>
     <t>id</t>
   </si>
@@ -36,6 +99,9 @@
     <t>mp效果</t>
   </si>
   <si>
+    <t>效果</t>
+  </si>
+  <si>
     <t>持续时间</t>
   </si>
   <si>
@@ -64,6 +130,12 @@
   </si>
   <si>
     <t>燃烧</t>
+  </si>
+  <si>
+    <t>减速</t>
+  </si>
+  <si>
+    <t>眩晕</t>
   </si>
 </sst>
 </file>
@@ -71,10 +143,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -92,6 +164,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -100,14 +202,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -121,18 +223,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -144,6 +239,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -151,79 +293,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -244,13 +316,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -268,157 +424,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -429,15 +501,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -452,15 +515,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -489,17 +543,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -529,6 +577,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -537,10 +609,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -549,16 +621,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -567,115 +639,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1031,15 +1103,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" ht="45" customHeight="1" spans="1:9">
+    <row r="1" ht="45" customHeight="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1067,13 +1139,16 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:10">
       <c r="A2">
         <v>101</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -1088,21 +1163,24 @@
         <v>0</v>
       </c>
       <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
         <v>120000</v>
       </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
       <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:10">
       <c r="A3">
         <v>102</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1117,21 +1195,24 @@
         <v>0</v>
       </c>
       <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
         <v>120000</v>
       </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
       <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>103</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -1146,21 +1227,24 @@
         <v>-5</v>
       </c>
       <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
         <v>20000</v>
       </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
       <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>104</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -1175,21 +1259,24 @@
         <v>0</v>
       </c>
       <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
         <v>60000</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>1000</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>105</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -1204,21 +1291,24 @@
         <v>1</v>
       </c>
       <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
         <v>-1</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>2000</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>106</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -1233,21 +1323,24 @@
         <v>0</v>
       </c>
       <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
         <v>20000</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>2000</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:10">
       <c r="A8">
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C8">
         <v>3</v>
@@ -1262,19 +1355,87 @@
         <v>0</v>
       </c>
       <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8">
         <v>20000</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>2000</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="H9">
+        <v>30000</v>
+      </c>
+      <c r="I9">
+        <v>-1</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>-20</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>4</v>
+      </c>
+      <c r="H10">
+        <v>30000</v>
+      </c>
+      <c r="I10">
+        <v>-1</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/gameserver/src/main/resources/gameData/buffer.xlsx
+++ b/gameserver/src/main/resources/gameData/buffer.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9084"/>
+    <workbookView windowWidth="23040" windowHeight="9347"/>
   </bookViews>
   <sheets>
     <sheet name="buffer配置表" sheetId="1" r:id="rId1"/>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
   <si>
     <t>id</t>
   </si>
@@ -139,6 +139,9 @@
   </si>
   <si>
     <t>治愈</t>
+  </si>
+  <si>
+    <t>定身</t>
   </si>
 </sst>
 </file>
@@ -147,9 +150,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -160,71 +163,109 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -236,27 +277,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -265,40 +285,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -313,187 +316,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -504,6 +507,45 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -522,17 +564,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -555,17 +591,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -580,30 +607,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -612,10 +615,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -624,133 +627,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -827,7 +830,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1106,10 +1109,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1396,7 +1399,7 @@
         <v>30000</v>
       </c>
       <c r="I9">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>1</v>
@@ -1428,7 +1431,7 @@
         <v>30000</v>
       </c>
       <c r="I10">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -1463,6 +1466,38 @@
         <v>2000</v>
       </c>
       <c r="J11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>5000</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
         <v>1</v>
       </c>
     </row>
